--- a/tabla_lag_opt.xlsx
+++ b/tabla_lag_opt.xlsx
@@ -1,21 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Problem_Set3\Taller_3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35354FD8-318D-47EE-9E6F-824A16854398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>lag_Optimo</t>
+  </si>
+  <si>
+    <t>lag1</t>
+  </si>
+  <si>
+    <t>lag2</t>
+  </si>
+  <si>
+    <t>lag3</t>
+  </si>
+  <si>
+    <t>lag4</t>
+  </si>
+  <si>
+    <t>lag5</t>
+  </si>
+  <si>
+    <t>lag6</t>
+  </si>
+  <si>
+    <t>lag7</t>
+  </si>
+  <si>
+    <t>lag8</t>
+  </si>
+  <si>
+    <t>lag9</t>
+  </si>
+  <si>
+    <t>lag10</t>
+  </si>
+  <si>
+    <t>lag11</t>
+  </si>
+  <si>
+    <t>lag12</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +126,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +178,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +212,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +247,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,86 +423,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>lag_Optimo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>lag1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>lag2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>lag3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lag4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lag5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lag6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>lag7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>lag8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>lag9</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>lag10</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>lag11</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>lag12</t>
-        </is>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>-36.737558801495</v>
+        <v>-36.737558801494998</v>
       </c>
       <c r="C2">
         <v>-38.81000305563029</v>
@@ -438,154 +487,154 @@
         <v>-39.26255577614797</v>
       </c>
       <c r="E2">
-        <v>-39.65408306559351</v>
+        <v>-39.654083065593511</v>
       </c>
       <c r="F2">
-        <v>-39.64904261073018</v>
+        <v>-39.649042610730177</v>
       </c>
       <c r="G2">
-        <v>-39.75349101277521</v>
+        <v>-39.753491012775207</v>
       </c>
       <c r="H2">
-        <v>-39.78089894531521</v>
+        <v>-39.780898945315208</v>
       </c>
       <c r="I2">
-        <v>-39.73839421617763</v>
+        <v>-39.738394216177632</v>
       </c>
       <c r="J2">
-        <v>-39.84714533894594</v>
+        <v>-39.847145338945943</v>
       </c>
       <c r="K2">
-        <v>-39.82881717738801</v>
+        <v>-39.828817177388011</v>
       </c>
       <c r="L2">
         <v>-39.76112731399229</v>
       </c>
       <c r="M2">
-        <v>-39.73367338999959</v>
+        <v>-39.733673389999588</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-36.47895803149336</v>
+        <v>-36.478958031493363</v>
       </c>
       <c r="C3">
-        <v>-38.33590164396062</v>
+        <v>-38.335901643960618</v>
       </c>
       <c r="D3">
-        <v>-38.57295372281026</v>
+        <v>-38.572953722810261</v>
       </c>
       <c r="E3">
-        <v>-38.74898037058777</v>
+        <v>-38.748980370587773</v>
       </c>
       <c r="F3">
-        <v>-38.5284392740564</v>
+        <v>-38.528439274056403</v>
       </c>
       <c r="G3">
-        <v>-38.4173870344334</v>
+        <v>-38.417387034433403</v>
       </c>
       <c r="H3">
-        <v>-38.22929432530537</v>
+        <v>-38.229294325305368</v>
       </c>
       <c r="I3">
-        <v>-37.97128895449976</v>
+        <v>-37.971288954499762</v>
       </c>
       <c r="J3">
-        <v>-37.86453943560004</v>
+        <v>-37.864539435600037</v>
       </c>
       <c r="K3">
-        <v>-37.63071063237408</v>
+        <v>-37.630710632374083</v>
       </c>
       <c r="L3">
-        <v>-37.34752012731033</v>
+        <v>-37.347520127310332</v>
       </c>
       <c r="M3">
-        <v>-37.10456556164959</v>
+        <v>-37.104565561649594</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-36.10119930472169</v>
+        <v>-36.101199304721689</v>
       </c>
       <c r="C4">
-        <v>-37.64334397821256</v>
+        <v>-37.643343978212563</v>
       </c>
       <c r="D4">
-        <v>-37.56559711808582</v>
+        <v>-37.565597118085819</v>
       </c>
       <c r="E4">
-        <v>-37.42682482688694</v>
+        <v>-37.426824826886943</v>
       </c>
       <c r="F4">
-        <v>-36.89148479137918</v>
+        <v>-36.891484791379177</v>
       </c>
       <c r="G4">
-        <v>-36.4656336127798</v>
+        <v>-36.465633612779797</v>
       </c>
       <c r="H4">
-        <v>-35.96274196467537</v>
+        <v>-35.962741964675367</v>
       </c>
       <c r="I4">
         <v>-35.38993765489338</v>
       </c>
       <c r="J4">
-        <v>-34.96838919701727</v>
+        <v>-34.968389197017267</v>
       </c>
       <c r="K4">
-        <v>-34.41976145481492</v>
+        <v>-34.419761454814918</v>
       </c>
       <c r="L4">
-        <v>-33.82177201077478</v>
+        <v>-33.821772010774779</v>
       </c>
       <c r="M4">
-        <v>-33.26401850613765</v>
+        <v>-33.264018506137653</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1.109685856006913e-16</v>
+        <v>1.109685856006913E-16</v>
       </c>
       <c r="C5">
-        <v>1.398832798356385e-17</v>
+        <v>1.3988327983563849E-17</v>
       </c>
       <c r="D5">
-        <v>8.928187406514105e-18</v>
+        <v>8.9281874065141055E-18</v>
       </c>
       <c r="E5">
-        <v>6.076086463573979e-18</v>
+        <v>6.0760864635739787E-18</v>
       </c>
       <c r="F5">
-        <v>6.173518130163936e-18</v>
+        <v>6.173518130163936E-18</v>
       </c>
       <c r="G5">
-        <v>5.652021404203911e-18</v>
+        <v>5.6520214042039109E-18</v>
       </c>
       <c r="H5">
-        <v>5.625723185034949e-18</v>
+        <v>5.6257231850349493E-18</v>
       </c>
       <c r="I5">
-        <v>6.052655501728119e-18</v>
+        <v>6.0526555017281188E-18</v>
       </c>
       <c r="J5">
-        <v>5.650753530034289e-18</v>
+        <v>5.6507535300342893E-18</v>
       </c>
       <c r="K5">
-        <v>6.057255469164105e-18</v>
+        <v>6.0572554691641046E-18</v>
       </c>
       <c r="L5">
-        <v>6.911093708915403e-18</v>
+        <v>6.9110937089154027E-18</v>
       </c>
       <c r="M5">
-        <v>7.691112513230251e-18</v>
+        <v>7.6911125132302512E-18</v>
       </c>
     </row>
   </sheetData>
